--- a/筛选结果.xlsx
+++ b/筛选结果.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PyCharm\GetBusStop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC6FC1-BA29-4BC6-8226-789D5C4D5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -70,39 +76,39 @@
     <t>观光9路</t>
   </si>
   <si>
-    <t>西于庄,泽天下,勤俭道,佳园里地铁站,凤城楼,小伙巷,刘园村,丁字沽十三段,佳宁里,引河北里公交站,瑞景新苑地铁站,西沽,北运河桥,本溪路地铁站,刘园地铁站,丁字沽八段,新三条石大街,西站公交站,御龙湾,宁城楼,丁字沽,佳园南里,丁字沽四段</t>
-  </si>
-  <si>
-    <t>中山门地铁站,友爱东里,中山门南里,四十五中学,互助西道,二宫,中心南道,和睦西里,中心西道</t>
-  </si>
-  <si>
-    <t>双安里,板桥农场,凯旋苑西门,第四采油厂站,老上古林,兴旺里,春港花园,福兴医院,大港大学城公交站,滨海外事学院,国土资源与房屋管理学院,古海岸遗迹博物馆,大港电厂生活区,三号院客运站,开元里北门,科林公司,上古林,大港石化公司,大港世纪广场,二号院,医科大学临床学院,古林里,大港财政局,胜利街,大港老客运站,大港学苑路,建国村,大港电厂,大港公园,晨晖里西门,农村教育培训中心,学府路,大港新客运站,四化里东门</t>
-  </si>
-  <si>
-    <t>大同道站,富民商业街,东兴路地铁站,大直沽,郑庄子,棉三创意园区,滨河小区,天津图书大厦,富华小区,和平路地铁站,直沽地铁站,福建路,大营门,滨河庭苑,曲阜道,二宫南门,天津站公交站</t>
-  </si>
-  <si>
-    <t>八纬路十二经路,泰达园,秋实园,黄纬路,南横街,合肥道,西楼,李地大街,淮和园,振宜楼,宜白楼,狮子林大街,中山路地铁站,马场道香港路,金纬路,凯旋门,三千路,淮兴园,淮河道公交站,唐口地道,越秀路,民宜里,仓联庄,广东路西南楼,淮祥园,鸿华里,都市桃源公寓,文化中心公交站,宸宜花园,李公楼,普祥里</t>
-  </si>
-  <si>
-    <t>胜利路,保安大街,体育中心公交站,苍穹道,体育中心西,体育中心北,平安街,百货大楼,新兴路,意式风情区,总医院,天塔地铁站,八里台,七里台,多伦道甘肃路,水上公园,南京路海光寺,天津站公交站,环湖西里</t>
-  </si>
-  <si>
-    <t>柳苑公寓,灰堆,复兴门地铁站,四新宿舍,复康路八里台,围堤道隆昌路,王顶堤北公交站,王顶堤地铁站,灰堆南,王顶堤立交桥南,天津图书馆,柳林路地铁站,土城地铁站,吴家窑地铁站,大沽南路洞庭路,红旗南路地铁站,西南楼地铁站,学苑北路地铁站,土城,大沽南路日报大厦,周邓纪念馆,儿童医院,棉四宿舍,佟楼,友谊路</t>
-  </si>
-  <si>
-    <t>环湖中路体北道,气象台路德才里,纪庄子前街,杨楼,黄家花园,环湖中路,邓店村,王台村,芳溪园,中石油桥,金丽花园,津涞花园,东风里,中盛里,贵州路天和医院,桂林路,河北路烟台道,渤海大楼,惠鑫花园,理工大学主校区,体院北,佟楼,体育馆,河北路山东路,气象南里,天津站公交站,华夏未来</t>
+    <t>佳园南里,北运河桥,小伙巷,丁字沽四段,泽天下,宁城楼,丁字沽八段,西站公交站,勤俭道,御龙湾,西于庄,新三条石大街,瑞景新苑地铁站,丁字沽,刘园村,佳园里地铁站,西沽,本溪路地铁站,凤城楼,引河北里公交站,丁字沽十三段,佳宁里,刘园地铁站</t>
+  </si>
+  <si>
+    <t>二宫,中心西道,中心南道,中山门南里,中山门地铁站,友爱东里,四十五中学,互助西道,和睦西里</t>
+  </si>
+  <si>
+    <t>大港大学城公交站,双安里,大港石化公司,晨晖里西门,大港学苑路,大港老客运站,春港花园,上古林,板桥农场,福兴医院,第四采油厂站,古林里,老上古林,四化里东门,大港新客运站,大港财政局,凯旋苑西门,胜利街,农村教育培训中心,国土资源与房屋管理学院,古海岸遗迹博物馆,大港世纪广场,科林公司,建国村,二号院,学府路,大港电厂生活区,大港电厂,医科大学临床学院,滨海外事学院,三号院客运站,开元里北门,大港公园,兴旺里</t>
+  </si>
+  <si>
+    <t>天津站公交站,棉三创意园区,大营门,和平路地铁站,大直沽,曲阜道,富华小区,东兴路地铁站,富民商业街,二宫南门,滨河庭苑,直沽地铁站,大同道站,郑庄子,滨河小区,天津图书大厦,福建路</t>
+  </si>
+  <si>
+    <t>宸宜花园,李地大街,南横街,西楼,都市桃源公寓,普祥里,泰达园,淮兴园,八纬路十二经路,马场道香港路,文化中心公交站,越秀路,仓联庄,金纬路,振宜楼,鸿华里,宜白楼,黄纬路,三千路,淮和园,广东路西南楼,淮河道公交站,秋实园,唐口地道,狮子林大街,淮祥园,合肥道,民宜里,李公楼,中山路地铁站,凯旋门</t>
+  </si>
+  <si>
+    <t>天津站公交站,水上公园,苍穹道,总医院,胜利路,百货大楼,天塔地铁站,体育中心西,体育中心公交站,体育中心北,意式风情区,南京路海光寺,七里台,八里台,平安街,新兴路,多伦道甘肃路,保安大街,环湖西里</t>
+  </si>
+  <si>
+    <t>灰堆,柳林路地铁站,大沽南路洞庭路,天津图书馆,土城地铁站,土城,友谊路,佟楼,围堤道隆昌路,学苑北路地铁站,红旗南路地铁站,吴家窑地铁站,周邓纪念馆,大沽南路日报大厦,四新宿舍,王顶堤立交桥南,王顶堤北公交站,柳苑公寓,灰堆南,王顶堤地铁站,复康路八里台,复兴门地铁站,儿童医院,棉四宿舍,西南楼地铁站</t>
+  </si>
+  <si>
+    <t>天津站公交站,杨楼,环湖中路体北道,东风里,邓店村,气象南里,佟楼,理工大学主校区,体院北,津涞花园,中石油桥,体育馆,芳溪园,华夏未来,环湖中路,桂林路,惠鑫花园,贵州路天和医院,气象台路德才里,河北路烟台道,王台村,河北路山东路,纪庄子前街,黄家花园,金丽花园,渤海大楼,中盛里</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,8 +116,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,17 +170,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -239,6 +260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -273,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,14 +471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -471,7 +496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -479,7 +504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -487,7 +512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -495,7 +520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -503,7 +528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -511,7 +536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -519,7 +544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -527,7 +552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -535,7 +560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -543,7 +568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -551,7 +576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -559,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -567,7 +592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -575,7 +600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -583,7 +608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -592,6 +617,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/筛选结果.xlsx
+++ b/筛选结果.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PyCharm\GetBusStop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC6FC1-BA29-4BC6-8226-789D5C4D5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -76,39 +70,39 @@
     <t>观光9路</t>
   </si>
   <si>
-    <t>佳园南里,北运河桥,小伙巷,丁字沽四段,泽天下,宁城楼,丁字沽八段,西站公交站,勤俭道,御龙湾,西于庄,新三条石大街,瑞景新苑地铁站,丁字沽,刘园村,佳园里地铁站,西沽,本溪路地铁站,凤城楼,引河北里公交站,丁字沽十三段,佳宁里,刘园地铁站</t>
-  </si>
-  <si>
-    <t>二宫,中心西道,中心南道,中山门南里,中山门地铁站,友爱东里,四十五中学,互助西道,和睦西里</t>
-  </si>
-  <si>
-    <t>大港大学城公交站,双安里,大港石化公司,晨晖里西门,大港学苑路,大港老客运站,春港花园,上古林,板桥农场,福兴医院,第四采油厂站,古林里,老上古林,四化里东门,大港新客运站,大港财政局,凯旋苑西门,胜利街,农村教育培训中心,国土资源与房屋管理学院,古海岸遗迹博物馆,大港世纪广场,科林公司,建国村,二号院,学府路,大港电厂生活区,大港电厂,医科大学临床学院,滨海外事学院,三号院客运站,开元里北门,大港公园,兴旺里</t>
-  </si>
-  <si>
-    <t>天津站公交站,棉三创意园区,大营门,和平路地铁站,大直沽,曲阜道,富华小区,东兴路地铁站,富民商业街,二宫南门,滨河庭苑,直沽地铁站,大同道站,郑庄子,滨河小区,天津图书大厦,福建路</t>
-  </si>
-  <si>
-    <t>宸宜花园,李地大街,南横街,西楼,都市桃源公寓,普祥里,泰达园,淮兴园,八纬路十二经路,马场道香港路,文化中心公交站,越秀路,仓联庄,金纬路,振宜楼,鸿华里,宜白楼,黄纬路,三千路,淮和园,广东路西南楼,淮河道公交站,秋实园,唐口地道,狮子林大街,淮祥园,合肥道,民宜里,李公楼,中山路地铁站,凯旋门</t>
-  </si>
-  <si>
-    <t>天津站公交站,水上公园,苍穹道,总医院,胜利路,百货大楼,天塔地铁站,体育中心西,体育中心公交站,体育中心北,意式风情区,南京路海光寺,七里台,八里台,平安街,新兴路,多伦道甘肃路,保安大街,环湖西里</t>
-  </si>
-  <si>
-    <t>灰堆,柳林路地铁站,大沽南路洞庭路,天津图书馆,土城地铁站,土城,友谊路,佟楼,围堤道隆昌路,学苑北路地铁站,红旗南路地铁站,吴家窑地铁站,周邓纪念馆,大沽南路日报大厦,四新宿舍,王顶堤立交桥南,王顶堤北公交站,柳苑公寓,灰堆南,王顶堤地铁站,复康路八里台,复兴门地铁站,儿童医院,棉四宿舍,西南楼地铁站</t>
-  </si>
-  <si>
-    <t>天津站公交站,杨楼,环湖中路体北道,东风里,邓店村,气象南里,佟楼,理工大学主校区,体院北,津涞花园,中石油桥,体育馆,芳溪园,华夏未来,环湖中路,桂林路,惠鑫花园,贵州路天和医院,气象台路德才里,河北路烟台道,王台村,河北路山东路,纪庄子前街,黄家花园,金丽花园,渤海大楼,中盛里</t>
+    <t>西站公交站,佳宁里,刘园地铁站,丁字沽八段,丁字沽十三段,西于庄,引河北里公交站,御龙湾,勤俭道,丁字沽四段,北运河桥,佳园里地铁站,佳园南里,瑞景新苑地铁站,本溪路地铁站,丁字沽,宁城楼,泽天下,小伙巷,凤城楼,西沽,新三条石大街,刘园村</t>
+  </si>
+  <si>
+    <t>友爱东里,中山门地铁站,中心南道,二宫,互助西道,中山门南里,四十五中学,和睦西里,中心西道</t>
+  </si>
+  <si>
+    <t>大港老客运站,滨海外事学院,国土资源与房屋管理学院,建国村,大港电厂生活区,三号院客运站,第四采油厂站,大港公园,上古林,春港花园,大港大学城公交站,四化里东门,二号院,大港财政局,晨晖里西门,板桥农场,老上古林,科林公司,大港石化公司,古林里,胜利街,古海岸遗迹博物馆,福兴医院,兴旺里,凯旋苑西门,医科大学临床学院,大港学苑路,双安里,农村教育培训中心,大港世纪广场,大港电厂,大港新客运站,学府路,开元里北门</t>
+  </si>
+  <si>
+    <t>天津图书大厦,二宫南门,富华小区,滨河庭苑,郑庄子,大直沽,和平路地铁站,福建路,棉三创意园区,富民商业街,大同道站,大营门,滨河小区,直沽地铁站,曲阜道,天津站公交站,东兴路地铁站</t>
+  </si>
+  <si>
+    <t>鸿华里,秋实园,泰达园,合肥道,文化中心公交站,南横街,淮和园,淮祥园,淮河道公交站,狮子林大街,民宜里,马场道香港路,广东路西南楼,越秀路,都市桃源公寓,金纬路,淮兴园,凯旋门,振宜楼,八纬路十二经路,仓联庄,李地大街,宜白楼,西楼,中山路地铁站,宸宜花园,唐口地道,三千路,黄纬路,普祥里,李公楼</t>
+  </si>
+  <si>
+    <t>意式风情区,水上公园,天塔地铁站,平安街,八里台,胜利路,南京路海光寺,七里台,体育中心公交站,体育中心西,总医院,新兴路,环湖西里,苍穹道,天津站公交站,保安大街,百货大楼,多伦道甘肃路,体育中心北</t>
+  </si>
+  <si>
+    <t>土城,灰堆,四新宿舍,周邓纪念馆,儿童医院,复兴门地铁站,复康路八里台,王顶堤北公交站,王顶堤地铁站,西南楼地铁站,灰堆南,柳苑公寓,佟楼,柳林路地铁站,天津图书馆,大沽南路洞庭路,学苑北路地铁站,围堤道隆昌路,大沽南路日报大厦,土城地铁站,吴家窑地铁站,红旗南路地铁站,王顶堤立交桥南,友谊路,棉四宿舍</t>
+  </si>
+  <si>
+    <t>河北路烟台道,桂林路,东风里,理工大学主校区,惠鑫花园,贵州路天和医院,华夏未来,环湖中路,气象台路德才里,中石油桥,河北路山东路,佟楼,津涞花园,中盛里,杨楼,渤海大楼,金丽花园,纪庄子前街,邓店村,天津站公交站,气象南里,黄家花园,环湖中路体北道,芳溪园,体院北,王台村,体育馆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,15 +110,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,25 +157,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +205,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,7 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -295,10 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,16 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -504,7 +479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -512,7 +487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -520,7 +495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -528,7 +503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -536,7 +511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -544,7 +519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -552,7 +527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -560,7 +535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -568,7 +543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -576,7 +551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -584,7 +559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -592,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -600,7 +575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -608,7 +583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -617,8 +592,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>